--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H2">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I2">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J2">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.619345</v>
       </c>
       <c r="O2">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="P2">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="Q2">
-        <v>17.85457923258</v>
+        <v>29.61863651610055</v>
       </c>
       <c r="R2">
-        <v>160.69121309322</v>
+        <v>266.567728644905</v>
       </c>
       <c r="S2">
-        <v>0.04110540641318133</v>
+        <v>0.2294589832788148</v>
       </c>
       <c r="T2">
-        <v>0.04110540641318134</v>
+        <v>0.2294589832788149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H3">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I3">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J3">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.363014</v>
+        <v>0.01275633333333333</v>
       </c>
       <c r="N3">
-        <v>1.089042</v>
+        <v>0.038269</v>
       </c>
       <c r="O3">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="P3">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="Q3">
-        <v>31.395081378888</v>
+        <v>1.830119886064555</v>
       </c>
       <c r="R3">
-        <v>282.5557324099921</v>
+        <v>16.471078974581</v>
       </c>
       <c r="S3">
-        <v>0.07227880100916907</v>
+        <v>0.01417814922393329</v>
       </c>
       <c r="T3">
-        <v>0.0722788010091691</v>
+        <v>0.01417814922393329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>473.562271</v>
       </c>
       <c r="I4">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J4">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,10 +691,10 @@
         <v>0.619345</v>
       </c>
       <c r="O4">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="P4">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="Q4">
         <v>32.58871385916611</v>
@@ -703,10 +703,10 @@
         <v>293.2984247324951</v>
       </c>
       <c r="S4">
-        <v>0.07502682142290557</v>
+        <v>0.2524685140189892</v>
       </c>
       <c r="T4">
-        <v>0.07502682142290558</v>
+        <v>0.2524685140189892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>473.562271</v>
       </c>
       <c r="I5">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J5">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.363014</v>
+        <v>0.01275633333333333</v>
       </c>
       <c r="N5">
-        <v>1.089042</v>
+        <v>0.038269</v>
       </c>
       <c r="O5">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="P5">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="Q5">
-        <v>57.30324474826467</v>
+        <v>2.013639394322111</v>
       </c>
       <c r="R5">
-        <v>515.7292027343821</v>
+        <v>18.122754548899</v>
       </c>
       <c r="S5">
-        <v>0.1319254368018534</v>
+        <v>0.01559989595942923</v>
       </c>
       <c r="T5">
-        <v>0.1319254368018535</v>
+        <v>0.01559989595942923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H6">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I6">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J6">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>0.619345</v>
       </c>
       <c r="O6">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="P6">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="Q6">
-        <v>22.11475386223222</v>
+        <v>15.05613601460445</v>
       </c>
       <c r="R6">
-        <v>199.03278476009</v>
+        <v>135.50522413144</v>
       </c>
       <c r="S6">
-        <v>0.05091332220116231</v>
+        <v>0.1166416171838528</v>
       </c>
       <c r="T6">
-        <v>0.05091332220116233</v>
+        <v>0.1166416171838528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H7">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I7">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J7">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.363014</v>
+        <v>0.01275633333333333</v>
       </c>
       <c r="N7">
-        <v>1.089042</v>
+        <v>0.038269</v>
       </c>
       <c r="O7">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="P7">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="Q7">
-        <v>38.88607444256933</v>
+        <v>0.9303106816764446</v>
       </c>
       <c r="R7">
-        <v>349.974669983124</v>
+        <v>8.372796135088</v>
       </c>
       <c r="S7">
-        <v>0.08952481450015452</v>
+        <v>0.007207223838101319</v>
       </c>
       <c r="T7">
-        <v>0.08952481450015455</v>
+        <v>0.007207223838101319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H8">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I8">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J8">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,22 +939,22 @@
         <v>0.619345</v>
       </c>
       <c r="O8">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="P8">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="Q8">
-        <v>55.84412614321167</v>
+        <v>17.82307796955778</v>
       </c>
       <c r="R8">
-        <v>502.597135288905</v>
+        <v>160.40770172602</v>
       </c>
       <c r="S8">
-        <v>0.1285662053977163</v>
+        <v>0.1380774347114408</v>
       </c>
       <c r="T8">
-        <v>0.1285662053977163</v>
+        <v>0.1380774347114408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H9">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I9">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J9">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.363014</v>
+        <v>0.01275633333333333</v>
       </c>
       <c r="N9">
-        <v>1.089042</v>
+        <v>0.038269</v>
       </c>
       <c r="O9">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="P9">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="Q9">
-        <v>98.195026718962</v>
+        <v>1.101278561733778</v>
       </c>
       <c r="R9">
-        <v>883.755240470658</v>
+        <v>9.911507055604</v>
       </c>
       <c r="S9">
-        <v>0.2260678579123747</v>
+        <v>0.008531731666473658</v>
       </c>
       <c r="T9">
-        <v>0.2260678579123748</v>
+        <v>0.008531731666473658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H10">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I10">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J10">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,22 +1063,22 @@
         <v>0.619345</v>
       </c>
       <c r="O10">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="P10">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="Q10">
-        <v>7.555002426742778</v>
+        <v>7.133781212747222</v>
       </c>
       <c r="R10">
-        <v>67.995021840685</v>
+        <v>64.204030914725</v>
       </c>
       <c r="S10">
-        <v>0.0173933779765113</v>
+        <v>0.05526622345092325</v>
       </c>
       <c r="T10">
-        <v>0.01739337797651131</v>
+        <v>0.05526622345092325</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H11">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I11">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J11">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.363014</v>
+        <v>0.01275633333333333</v>
       </c>
       <c r="N11">
-        <v>1.089042</v>
+        <v>0.038269</v>
       </c>
       <c r="O11">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="P11">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="Q11">
-        <v>13.28454246474067</v>
+        <v>0.4407925683272221</v>
       </c>
       <c r="R11">
-        <v>119.560882182666</v>
+        <v>3.967133114944999</v>
       </c>
       <c r="S11">
-        <v>0.03058411570012807</v>
+        <v>0.003414870718651772</v>
       </c>
       <c r="T11">
-        <v>0.03058411570012808</v>
+        <v>0.003414870718651772</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H12">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I12">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J12">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.619345</v>
       </c>
       <c r="O12">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="P12">
-        <v>0.3625320258231888</v>
+        <v>0.9418062875790357</v>
       </c>
       <c r="Q12">
-        <v>21.51254304165722</v>
+        <v>19.348301258645</v>
       </c>
       <c r="R12">
-        <v>193.612887374915</v>
+        <v>174.134711327805</v>
       </c>
       <c r="S12">
-        <v>0.04952689241171195</v>
+        <v>0.1498935149350149</v>
       </c>
       <c r="T12">
-        <v>0.04952689241171196</v>
+        <v>0.1498935149350149</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H13">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I13">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J13">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.363014</v>
+        <v>0.01275633333333333</v>
       </c>
       <c r="N13">
-        <v>1.089042</v>
+        <v>0.038269</v>
       </c>
       <c r="O13">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="P13">
-        <v>0.6374679741768112</v>
+        <v>0.05819371242096427</v>
       </c>
       <c r="Q13">
-        <v>37.82716078949933</v>
+        <v>1.195521302129</v>
       </c>
       <c r="R13">
-        <v>340.444447105494</v>
+        <v>10.759691719161</v>
       </c>
       <c r="S13">
-        <v>0.08708694825313128</v>
+        <v>0.009261841014374998</v>
       </c>
       <c r="T13">
-        <v>0.08708694825313132</v>
+        <v>0.009261841014374998</v>
       </c>
     </row>
   </sheetData>
